--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD99816-0D30-484B-B770-8D2DBF20794D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FDA39-7659-41AE-B897-CF782A8A5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>https://www.tinytronics.nl/nl/kabels-en-connectoren/kabels-en-adapters/prototyping-draden/dupont-compatible-en-jumper/dupont-jumper-draad-male-female-10cm-10-draden</t>
+  </si>
+  <si>
+    <t>https://lastminuteengineers.com/esp32-cam-pinout-reference/</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FDA39-7659-41AE-B897-CF782A8A5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C5077-E223-4B76-8905-CB7A32729216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="PINS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Item</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>https://lastminuteengineers.com/esp32-cam-pinout-reference/</t>
+  </si>
+  <si>
+    <t>Mac adress</t>
+  </si>
+  <si>
+    <t>A0:A3:B3:EC:EC:54</t>
+  </si>
+  <si>
+    <t>D0:EF:76:34:97:44</t>
   </si>
 </sst>
 </file>
@@ -388,6 +397,50 @@
         <a:xfrm>
           <a:off x="3657600" y="269422"/>
           <a:ext cx="4622988" cy="6439799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>354956</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>74412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Afbeelding 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652F0B3E-2B67-E32C-99DA-E0694A3CCF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7892143" y="4435929"/>
+          <a:ext cx="8383170" cy="6687483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,13 +757,13 @@
     <col min="11" max="11" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
         <v>173.97</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -744,8 +797,11 @@
       <c r="K2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -774,8 +830,11 @@
       <c r="I3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -802,7 +861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -829,7 +888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -861,8 +920,11 @@
       <c r="K6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -889,7 +951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -916,7 +978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -943,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -970,14 +1032,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <f t="shared" ref="E11:E18" si="2">SUM(C11*D11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1007,14 +1069,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1074,7 +1136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1284,7 +1346,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C5077-E223-4B76-8905-CB7A32729216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB61C8-D5BE-416E-A7E6-08BBC037A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t>D0:EF:76:34:97:44</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/nl/displays/oled/2.42-inch-oled-display-128*64-pixels-wit-i2c</t>
+  </si>
+  <si>
+    <t>2.42 inch OLED Display 128*64 pixels - Wit - I2C</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>CC:DB:A7:3E:66:84</t>
+  </si>
+  <si>
+    <t>7seg display</t>
+  </si>
+  <si>
+    <t>Fakkert</t>
+  </si>
+  <si>
+    <t>HEF74HC595 multimexer</t>
   </si>
 </sst>
 </file>
@@ -449,12 +473,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>342875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC2C71F-8EEA-B7CA-3546-C5F137B93665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17682882" y="1636059"/>
+          <a:ext cx="3839111" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>227849</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Afbeelding 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3C54DD-BD6F-6DF9-9989-9151E8D76D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18153529" y="4762500"/>
+          <a:ext cx="2648320" cy="4115374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K24" totalsRowShown="0">
-  <autoFilter ref="A2:K24" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K27" totalsRowShown="0">
+  <autoFilter ref="A2:K27" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
@@ -737,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,15 +867,19 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>173.97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>191.77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,10 +914,13 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -833,8 +952,11 @@
       <c r="M3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -861,7 +983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -888,7 +1010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -924,7 +1046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -951,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1032,14 +1154,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <f t="shared" ref="E11:E18" si="2">SUM(C11*D11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1069,14 +1191,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1136,7 +1258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1321,6 +1443,72 @@
         <v>0.5</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUM(C25*D25)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(C26*D26)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="1">
+        <f>SUM(C27*D27)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1345,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB61C8-D5BE-416E-A7E6-08BBC037A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DAEE7-0276-4C9A-ADB2-74F38E2DD90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>Item</t>
   </si>
@@ -256,7 +256,19 @@
     <t>Fakkert</t>
   </si>
   <si>
-    <t>HEF74HC595 multimexer</t>
+    <t>https://www.amazon.nl/gp/product/B07QHWLTTS/ref=ox_sc_act_title_2?smid=A1X7QLRQH87QA3&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZDelivery ADC-Module compatibel met ADS1115 </t>
+  </si>
+  <si>
+    <t>AZDelivery SPI Reader Micro Memory SD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B077MCQS9P/ref=ox_sc_act_title_3?smid=A1X7QLRQH87QA3&amp;th=1</t>
+  </si>
+  <si>
+    <t>HEF74HC595 multiplexer</t>
   </si>
 </sst>
 </file>
@@ -565,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K27" totalsRowShown="0">
-  <autoFilter ref="A2:K27" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K30" totalsRowShown="0">
+  <autoFilter ref="A2:K30" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +885,7 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>191.77</v>
+        <v>222.43</v>
       </c>
       <c r="M1" t="s">
         <v>62</v>
@@ -1385,14 +1397,14 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>3.5</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(C22*D22)</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
@@ -1493,7 +1505,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
@@ -1512,8 +1524,80 @@
         <v>15</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <f>SUM(C28*D28)</f>
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1.83</v>
+      </c>
+      <c r="E29" s="1">
+        <f>SUM(C29*D29)</f>
+        <v>3.66</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>15.5</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(C30*D30)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1533,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DAEE7-0276-4C9A-ADB2-74F38E2DD90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73F596-E9ED-4655-9AA5-C7271C2C0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73F596-E9ED-4655-9AA5-C7271C2C0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19134D3E-02AF-446E-8CE3-A966CB2750E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>2.75</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM(C21*D21)</f>
+        <f t="shared" ref="E21:E30" si="3">SUM(C21*D21)</f>
         <v>2.75</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1403,7 +1403,7 @@
         <v>3.5</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM(C22*D22)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1427,7 +1427,7 @@
         <v>0.15</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM(C23*D23)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1451,7 +1451,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="1">
-        <f>SUM(C24*D24)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1472,7 +1472,7 @@
         <v>15.5</v>
       </c>
       <c r="E25" s="1">
-        <f>SUM(C25*D25)</f>
+        <f t="shared" si="3"/>
         <v>15.5</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1496,7 +1496,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" s="1">
-        <f>SUM(C26*D26)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1517,7 +1517,7 @@
         <v>0.8</v>
       </c>
       <c r="E27" s="1">
-        <f>SUM(C27*D27)</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <f>SUM(C28*D28)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1562,7 +1562,7 @@
         <v>1.83</v>
       </c>
       <c r="E29" s="1">
-        <f>SUM(C29*D29)</f>
+        <f t="shared" si="3"/>
         <v>3.66</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1586,7 +1586,7 @@
         <v>15.5</v>
       </c>
       <c r="E30" s="1">
-        <f>SUM(C30*D30)</f>
+        <f t="shared" si="3"/>
         <v>15.5</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1617,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19134D3E-02AF-446E-8CE3-A966CB2750E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ECF98C-26D1-4F7E-BF47-05EB513A417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Item</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>DroneShop.nl</t>
-  </si>
-  <si>
-    <t>Nee?</t>
   </si>
   <si>
     <t>SpeedyBee BLS 60A 30x30 4in1 ESC</t>
@@ -133,9 +130,6 @@
 https://docs.espressif.com/projects/arduino-esp32/en/latest/installing.html</t>
   </si>
   <si>
-    <t>https://esc-configurator.com/</t>
-  </si>
-  <si>
     <t>Overige</t>
   </si>
   <si>
@@ -269,6 +263,15 @@
   </si>
   <si>
     <t>HEF74HC595 multiplexer</t>
+  </si>
+  <si>
+    <t>Rond Stekker Femal 4mm 0,5-1,5mm</t>
+  </si>
+  <si>
+    <t>Rondstekker male 4mm</t>
+  </si>
+  <si>
+    <t>Montagesnoer 1,5mm 5m</t>
   </si>
 </sst>
 </file>
@@ -577,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K30" totalsRowShown="0">
-  <autoFilter ref="A2:K30" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K33" totalsRowShown="0">
+  <autoFilter ref="A2:K33" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,10 +888,10 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>222.43</v>
+        <v>238.63</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -911,25 +914,25 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,19 +956,19 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -989,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1016,10 +1019,10 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1043,19 +1046,19 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1079,10 +1082,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1106,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1133,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1160,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1175,7 +1178,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1194,13 +1197,13 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,10 +1215,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1231,21 +1234,21 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1261,21 +1264,21 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1291,18 +1294,18 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1318,10 +1321,10 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,7 +1343,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1356,18 +1359,18 @@
         <v>49.95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1386,12 +1389,12 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1410,12 +1413,12 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1434,12 +1437,12 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1479,15 +1482,15 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1505,10 +1508,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1526,10 +1529,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1545,15 +1548,15 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1569,12 +1572,12 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1593,12 +1596,70 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2.8</v>
+      </c>
+      <c r="E31" s="1">
+        <f>SUM(C31*D31)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2.8</v>
+      </c>
+      <c r="E32" s="1">
+        <f>SUM(C32*D32)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <f>SUM(C33*D33)</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ECF98C-26D1-4F7E-BF47-05EB513A417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A0826-E0F5-4BB0-A5BC-675E89A32D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>Item</t>
   </si>
@@ -166,18 +166,6 @@
     <t>Voor spanningsverdeler</t>
   </si>
   <si>
-    <t>AZDelivery 3 x Ultrasone Module</t>
-  </si>
-  <si>
-    <t>https://www.amazon.nl/gp/product/B072N473HD/ref=ox_sc_act_title_3?smid=A1X7QLRQH87QA3&amp;th=1</t>
-  </si>
-  <si>
-    <t>ELEGOO 3 Stuks Breadboard 830 Punt Soldeerloos</t>
-  </si>
-  <si>
-    <t>https://www.amazon.nl/gp/product/B01MCRZFE5/ref=ox_sc_act_title_4?smid=AZF7WYXU5ZANW&amp;psc=1</t>
-  </si>
-  <si>
     <t>ATGM336H GPS Module</t>
   </si>
   <si>
@@ -187,39 +175,24 @@
     <t>https://randomnerdtutorials.com/esp32-neo-6m-gps-module-arduino/</t>
   </si>
   <si>
-    <t>https://chatgpt.com/c/67549e59-2a60-8001-a7a9-a2b217968acf</t>
-  </si>
-  <si>
     <t>https://randomnerdtutorials.com/esp32-cam-ai-thinker-pinout/</t>
   </si>
   <si>
-    <t>Kolom1</t>
-  </si>
-  <si>
     <t>ESP32-CAM-MB Programmer Shield</t>
   </si>
   <si>
     <t>https://www.tinytronics.nl/nl/development-boards/accessoires/adapter-boards/esp32-cam-mb-programmeer-shield</t>
   </si>
   <si>
-    <t>I2C Multiplexer - TCA9548A</t>
-  </si>
-  <si>
     <t>Tuozhan RG Red and Green LED - 5mm - Diffuse - Common Cathode</t>
   </si>
   <si>
     <t>DuPont Jumper wire Male-Female 10cm 10 wires</t>
   </si>
   <si>
-    <t>https://www.tinytronics.nl/nl/communicatie-en-signalen/io-converters/i2c-multiplexer-tca9548a</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/nl/kabels-en-connectoren/kabels-en-adapters/prototyping-draden/dupont-compatible-en-jumper/dupont-jumper-draad-male-female-10cm-10-draden</t>
   </si>
   <si>
-    <t>https://lastminuteengineers.com/esp32-cam-pinout-reference/</t>
-  </si>
-  <si>
     <t>Mac adress</t>
   </si>
   <si>
@@ -256,12 +229,6 @@
     <t xml:space="preserve">AZDelivery ADC-Module compatibel met ADS1115 </t>
   </si>
   <si>
-    <t>AZDelivery SPI Reader Micro Memory SD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.nl/gp/product/B077MCQS9P/ref=ox_sc_act_title_3?smid=A1X7QLRQH87QA3&amp;th=1</t>
-  </si>
-  <si>
     <t>HEF74HC595 multiplexer</t>
   </si>
   <si>
@@ -272,6 +239,27 @@
   </si>
   <si>
     <t>Montagesnoer 1,5mm 5m</t>
+  </si>
+  <si>
+    <t>5V voltage regulator step down input 6.5-12V AMS1117 (OT3723)</t>
+  </si>
+  <si>
+    <t>Otronic</t>
+  </si>
+  <si>
+    <t>https://www.otronic.nl/nl/5v-voltage-regulator-step-down-input-65-12v-ams111.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lastminuteengineers.com/esp32-cam-pinout-reference/ </t>
+  </si>
+  <si>
+    <t>Stroomverbruik (mah)</t>
+  </si>
+  <si>
+    <t>3.3V voltage regulator step down input 4.5-7V AMS1117</t>
+  </si>
+  <si>
+    <t>https://www.otronic.nl/nl/33v-voltage-regulator-step-down-input-45-7v-ams111.html</t>
   </si>
 </sst>
 </file>
@@ -580,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K33" totalsRowShown="0">
-  <autoFilter ref="A2:K33" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K30" totalsRowShown="0">
+  <autoFilter ref="A2:K30" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
@@ -595,7 +583,7 @@
     <tableColumn id="8" xr3:uid="{05CD4EA6-BFEB-49AD-A665-20370EBE6C91}" name="Sources"/>
     <tableColumn id="9" xr3:uid="{785E4972-5346-453B-9479-E8F5DA371B14}" name="Overige"/>
     <tableColumn id="10" xr3:uid="{AF153F91-9F48-41B2-ADC7-CAA87C3512D6}" name="Notes"/>
-    <tableColumn id="11" xr3:uid="{AF4055CA-2FDB-48A4-AD3D-40C19D5EAF2B}" name="Kolom1"/>
+    <tableColumn id="11" xr3:uid="{AF4055CA-2FDB-48A4-AD3D-40C19D5EAF2B}" name="Stroomverbruik (mah)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -864,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +876,10 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>238.63</v>
+        <v>214.57</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -926,13 +914,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,11 +952,14 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
+      <c r="K3">
+        <v>-260</v>
+      </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -997,6 +988,9 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
+      <c r="K4">
+        <v>-4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1039,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E20" si="1">SUM(C6*D6)</f>
+        <f t="shared" ref="E6:E17" si="1">SUM(C6*D6)</f>
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1048,17 +1042,17 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
+      <c r="H6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>-310</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1087,6 +1081,9 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
+      <c r="K7">
+        <v>-60</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1171,14 +1168,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
-        <f t="shared" ref="E11:E18" si="2">SUM(C11*D11)</f>
+        <f t="shared" ref="E11:E15" si="2">SUM(C11*D11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1196,14 +1193,17 @@
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
+      </c>
+      <c r="K12">
+        <v>-25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1274,103 +1274,111 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5.99</v>
-      </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>5.99</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>9.99</v>
+        <v>49.95</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>9.99</v>
+        <f t="shared" si="1"/>
+        <v>49.95</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.75</v>
+      </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E18:E25" si="3">SUM(C18*D18)</f>
+        <v>2.75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0.15</v>
+      </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>49.95</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>49.95</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1379,91 +1387,91 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2.75</v>
+        <v>15.5</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21:E30" si="3">SUM(C21*D21)</f>
-        <v>2.75</v>
+        <f t="shared" si="3"/>
+        <v>15.5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1482,194 +1490,139 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2.8</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(C26*D26)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2.8</v>
+      </c>
+      <c r="E27" s="1">
+        <f>SUM(C27*D27)</f>
+        <v>5.6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <f>SUM(C28*D28)</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1.29</v>
+      </c>
+      <c r="E29" s="1">
+        <f>SUM(C29*D29)</f>
+        <v>1.29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
         <v>69</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0.8</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="K29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1.83</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>3.66</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.29</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(C30*D30)</f>
+        <v>1.29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>15.5</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="3"/>
-        <v>15.5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>2.8</v>
-      </c>
-      <c r="E31" s="1">
-        <f>SUM(C31*D31)</f>
-        <v>5.6</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>2.8</v>
-      </c>
-      <c r="E32" s="1">
-        <f>SUM(C32*D32)</f>
-        <v>5.6</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <f>SUM(C33*D33)</f>
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f>SUM(Tabel1[Stroomverbruik (mah)])</f>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{E9EF2D95-81B5-4EA1-89C4-F6E1B1868145}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{BF74AD7E-8287-4B8A-BDDC-DB7B3BB43468}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{43840C56-EBF5-4E00-9272-B73660BB0DF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A0826-E0F5-4BB0-A5BC-675E89A32D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82C00E-87E6-48EB-B29B-7604B38F42E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1275" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -241,25 +241,22 @@
     <t>Montagesnoer 1,5mm 5m</t>
   </si>
   <si>
-    <t>5V voltage regulator step down input 6.5-12V AMS1117 (OT3723)</t>
-  </si>
-  <si>
-    <t>Otronic</t>
-  </si>
-  <si>
-    <t>https://www.otronic.nl/nl/5v-voltage-regulator-step-down-input-65-12v-ams111.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://lastminuteengineers.com/esp32-cam-pinout-reference/ </t>
   </si>
   <si>
     <t>Stroomverbruik (mah)</t>
   </si>
   <si>
-    <t>3.3V voltage regulator step down input 4.5-7V AMS1117</t>
-  </si>
-  <si>
-    <t>https://www.otronic.nl/nl/33v-voltage-regulator-step-down-input-45-7v-ams111.html</t>
+    <t>12v buck converter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B07DK7Y35Q?smid=A3SCFTIO8CSK1X&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B07DJ5HZ7G?smid=A3SCFTIO8CSK1X&amp;psc=1</t>
+  </si>
+  <si>
+    <t>INA219 battery monitor</t>
   </si>
 </sst>
 </file>
@@ -852,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +873,7 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>214.57</v>
+        <v>219.36</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
@@ -914,7 +911,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
         <v>56</v>
@@ -1043,7 +1040,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
@@ -1558,29 +1555,26 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="E29" s="1">
-        <f>SUM(C29*D29)</f>
-        <v>1.29</v>
+        <f t="shared" ref="E29:E30" si="4">SUM(C29*D29)</f>
+        <v>2.38</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29">
-        <v>800</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,29 +1582,29 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1.29</v>
+        <v>4.99</v>
       </c>
       <c r="E30" s="1">
-        <f>SUM(C30*D30)</f>
-        <v>1.29</v>
+        <f t="shared" si="4"/>
+        <v>4.99</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32">
         <f>SUM(Tabel1[Stroomverbruik (mah)])</f>
-        <v>101</v>
+        <v>-699</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82C00E-87E6-48EB-B29B-7604B38F42E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF0EBD-D887-4ECF-9739-CA55AA18201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1275" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Item</t>
   </si>
@@ -166,15 +166,6 @@
     <t>Voor spanningsverdeler</t>
   </si>
   <si>
-    <t>ATGM336H GPS Module</t>
-  </si>
-  <si>
-    <t>https://www.tinytronics.nl/nl/communicatie-en-signalen/draadloos/gps/modules/atgm336h-gps-module</t>
-  </si>
-  <si>
-    <t>https://randomnerdtutorials.com/esp32-neo-6m-gps-module-arduino/</t>
-  </si>
-  <si>
     <t>https://randomnerdtutorials.com/esp32-cam-ai-thinker-pinout/</t>
   </si>
   <si>
@@ -257,6 +248,18 @@
   </si>
   <si>
     <t>INA219 battery monitor</t>
+  </si>
+  <si>
+    <t>EMAX ECO II Series 2207 2400kv Motor</t>
+  </si>
+  <si>
+    <t>n-factory</t>
+  </si>
+  <si>
+    <t>https://n-factory.de/EMAX-ECO-II-Series-2207-2400kv-Motor_1</t>
+  </si>
+  <si>
+    <t>https://droneshop.nl/emax-eco-2-series-2207-motor-2400kv</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K30" totalsRowShown="0">
-  <autoFilter ref="A2:K30" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K31" totalsRowShown="0">
+  <autoFilter ref="A2:K31" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,10 +876,10 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>219.36</v>
+        <v>286.8</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -911,13 +914,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,10 +956,10 @@
         <v>-260</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1030,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E17" si="1">SUM(C6*D6)</f>
+        <f t="shared" ref="E6:E15" si="1">SUM(C6*D6)</f>
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1040,16 +1043,16 @@
         <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-310</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1165,17 +1168,17 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
-        <f t="shared" ref="E11:E15" si="2">SUM(C11*D11)</f>
+        <f t="shared" ref="E11:E13" si="2">SUM(C11*D11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1190,118 +1193,126 @@
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
+      <c r="G12" t="s">
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="K12">
-        <v>-25</v>
+      <c r="J12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7.99</v>
+      </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
+        <v>7.99</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.99</v>
+        <v>49.95</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>7.99</v>
+        <f t="shared" si="1"/>
+        <v>49.95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2.75</v>
+      </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+        <f t="shared" ref="E16:E23" si="3">SUM(C16*D16)</f>
+        <v>2.75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>49.95</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>49.95</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1315,59 +1326,56 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E25" si="3">SUM(C18*D18)</f>
-        <v>2.75</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.15</v>
+        <v>15.5</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>15.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
@@ -1375,26 +1383,26 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>15.5</v>
+        <v>0.8</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="3"/>
-        <v>15.5</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
+      <c r="K21">
+        <v>-40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1402,110 +1410,107 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>15.5</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>15.5</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K23">
-        <v>-40</v>
+      <c r="G23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>SUM(C24*D24)</f>
+        <v>5.6</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>15.5</v>
+        <v>2.8</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>15.5</v>
+        <f>SUM(C25*D25)</f>
+        <v>5.6</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <f>SUM(C26*D26)</f>
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>15</v>
@@ -1513,110 +1518,122 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2.8</v>
+        <v>1.19</v>
       </c>
       <c r="E27" s="1">
-        <f>SUM(C27*D27)</f>
-        <v>5.6</v>
+        <f t="shared" ref="E27:E28" si="4">SUM(C27*D27)</f>
+        <v>2.38</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="E28" s="1">
-        <f>SUM(C28*D28)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4.99</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1.19</v>
+        <v>18.95</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E30" si="4">SUM(C29*D29)</f>
-        <v>2.38</v>
+        <f>SUM(C29*D29)</f>
+        <v>18.95</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ref="E30:E31" si="5">SUM(C30*D30)</f>
+        <v>59.489999999999995</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>4.99</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="4"/>
-        <v>4.99</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34">
         <f>SUM(Tabel1[Stroomverbruik (mah)])</f>
-        <v>-699</v>
+        <v>-674</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{E9EF2D95-81B5-4EA1-89C4-F6E1B1868145}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{BF74AD7E-8287-4B8A-BDDC-DB7B3BB43468}"/>
-    <hyperlink ref="G12" r:id="rId3" xr:uid="{43840C56-EBF5-4E00-9272-B73660BB0DF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF0EBD-D887-4ECF-9739-CA55AA18201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF61B7-ABCC-47C1-9657-4A3D2969E11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Item</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>https://droneshop.nl/emax-eco-2-series-2207-motor-2400kv</t>
+  </si>
+  <si>
+    <t>Battery</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +879,7 @@
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>286.8</v>
+        <v>355.7</v>
       </c>
       <c r="M1" t="s">
         <v>48</v>
@@ -1093,14 +1096,14 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
@@ -1613,11 +1616,25 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>63.9</v>
+      </c>
       <c r="E31" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>63.9</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF61B7-ABCC-47C1-9657-4A3D2969E11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB048F7-665A-418A-89F7-C37904ACFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>Item</t>
   </si>
@@ -263,6 +263,21 @@
   </si>
   <si>
     <t>Battery</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>oranje</t>
+  </si>
+  <si>
+    <t>geel</t>
+  </si>
+  <si>
+    <t>groen</t>
+  </si>
+  <si>
+    <t>blauw</t>
   </si>
 </sst>
 </file>
@@ -438,15 +453,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
+      <xdr:colOff>534761</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>354956</xdr:colOff>
+      <xdr:colOff>345431</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>74412</xdr:rowOff>
+      <xdr:rowOff>169662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -469,8 +484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7892143" y="4435929"/>
-          <a:ext cx="8383170" cy="6687483"/>
+          <a:off x="7849961" y="4531179"/>
+          <a:ext cx="8345070" cy="6687483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,6 +578,65 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1B9537-EB56-AAD3-BBB6-10AA610CB18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="29830" b="25425"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21772666" y="3636818"/>
+          <a:ext cx="12122726" cy="5455227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -857,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1657,14 +1731,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
-  <dimension ref="A1"/>
+  <dimension ref="AT51:AU55"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU52" sqref="AU52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="51" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT52">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT53">
+        <v>2</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT54">
+        <v>3</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="46:47" x14ac:dyDescent="0.25">
+      <c r="AT55">
+        <v>4</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
